--- a/cic2024/presupuesto.xlsx
+++ b/cic2024/presupuesto.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oscardelatorretorres/Dropbox/01 TRABAJO/06 Proyectos de investigación/01 CIC/2024/propuestaProyecto/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oscardelatorretorres/Dropbox/Mac (2)/Documents/GitHub/proyectosInvestigacion/cic2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{341A8B5D-F1D1-ED43-BC03-D2A8098B0371}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{110A7FA6-3651-A24C-9D74-EB4EB505443F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="960" windowWidth="25040" windowHeight="14500" xr2:uid="{22280D65-3717-A040-8AE6-0C1E33C87C39}"/>
+    <workbookView xWindow="480" yWindow="960" windowWidth="25040" windowHeight="14500" activeTab="1" xr2:uid="{22280D65-3717-A040-8AE6-0C1E33C87C39}"/>
   </bookViews>
   <sheets>
     <sheet name="presupuesto" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="85">
   <si>
     <t>Economatica</t>
   </si>
@@ -85,12 +85,6 @@
     <t>Tarea</t>
   </si>
   <si>
-    <t>Publicación de resultados</t>
-  </si>
-  <si>
-    <t>Publicación de artículos científicos</t>
-  </si>
-  <si>
     <t>Extracción y procesamiento de datos</t>
   </si>
   <si>
@@ -133,9 +127,6 @@
     <t>Extracción Datos NYMEX</t>
   </si>
   <si>
-    <t>Titulación de doctorando</t>
-  </si>
-  <si>
     <t>Doctorando titulado</t>
   </si>
   <si>
@@ -290,6 +281,18 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Artículos en revistas</t>
+  </si>
+  <si>
+    <t>Ponencias</t>
+  </si>
+  <si>
+    <t>Titulaciones</t>
+  </si>
+  <si>
+    <t>Publicación software/apps</t>
   </si>
 </sst>
 </file>
@@ -664,7 +667,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7BF57AD-E1BD-3445-91C8-F8CA4B697807}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -682,13 +685,13 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s">
         <v>27</v>
-      </c>
-      <c r="C1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" t="s">
-        <v>29</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
@@ -696,7 +699,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B2">
         <v>1000</v>
@@ -716,7 +719,7 @@
     </row>
     <row r="3" spans="1:5" ht="34">
       <c r="A3" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B3">
         <v>500</v>
@@ -736,7 +739,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4">
         <v>11000</v>
@@ -756,7 +759,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5">
         <v>500</v>
@@ -776,7 +779,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B6">
         <v>3000</v>
@@ -796,7 +799,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B7">
         <v>11500</v>
@@ -816,7 +819,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B8">
         <v>12000</v>
@@ -836,7 +839,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B9">
         <f>SUM(B2:B8)</f>
@@ -864,8 +867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77E9CB16-4A21-0844-B7FF-E619842501CF}">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -890,7 +893,7 @@
         <v>14</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -905,13 +908,13 @@
         <v>45323</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -927,13 +930,13 @@
         <v>45353</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -949,13 +952,13 @@
         <v>45383</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="68">
@@ -968,13 +971,13 @@
         <v>45353</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -989,13 +992,13 @@
         <v>45689</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1011,13 +1014,13 @@
         <v>45749</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1033,13 +1036,13 @@
         <v>45383</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1055,13 +1058,13 @@
         <v>45779</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="51">
@@ -1074,13 +1077,13 @@
         <v>45413</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1096,13 +1099,13 @@
         <v>45809</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1118,13 +1121,13 @@
         <v>45704</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -1140,13 +1143,13 @@
         <v>45704</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -1162,13 +1165,13 @@
         <v>45704</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D14" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -1184,13 +1187,13 @@
         <v>45779</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D15" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -1206,13 +1209,13 @@
         <v>45779</v>
       </c>
       <c r="C16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D16" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="68">
@@ -1225,13 +1228,13 @@
         <v>45809</v>
       </c>
       <c r="C17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>69</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="34">
@@ -1244,13 +1247,13 @@
         <v>45443</v>
       </c>
       <c r="C18" t="s">
-        <v>15</v>
+        <v>84</v>
       </c>
       <c r="D18" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1266,13 +1269,13 @@
         <v>45443</v>
       </c>
       <c r="C19" t="s">
-        <v>15</v>
+        <v>84</v>
       </c>
       <c r="D19" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1288,13 +1291,13 @@
         <v>45443</v>
       </c>
       <c r="C20" t="s">
-        <v>15</v>
+        <v>84</v>
       </c>
       <c r="D20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1309,13 +1312,13 @@
         <v>45641</v>
       </c>
       <c r="C21" t="s">
-        <v>15</v>
+        <v>84</v>
       </c>
       <c r="D21" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1331,13 +1334,13 @@
         <v>45473</v>
       </c>
       <c r="C22" t="s">
-        <v>16</v>
+        <v>81</v>
       </c>
       <c r="D22" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1353,13 +1356,13 @@
         <v>45929</v>
       </c>
       <c r="C23" t="s">
-        <v>16</v>
+        <v>81</v>
       </c>
       <c r="D23" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -1374,13 +1377,13 @@
         <v>45641</v>
       </c>
       <c r="C24" t="s">
-        <v>15</v>
+        <v>82</v>
       </c>
       <c r="D24" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1395,13 +1398,13 @@
         <v>45641</v>
       </c>
       <c r="C25" t="s">
-        <v>15</v>
+        <v>82</v>
       </c>
       <c r="D25" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1416,13 +1419,13 @@
         <v>46006</v>
       </c>
       <c r="C26" t="s">
-        <v>15</v>
+        <v>82</v>
       </c>
       <c r="D26" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -1437,13 +1440,13 @@
         <v>46006</v>
       </c>
       <c r="C27" t="s">
-        <v>15</v>
+        <v>82</v>
       </c>
       <c r="D27" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -1457,13 +1460,13 @@
         <v>45901</v>
       </c>
       <c r="C28" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="D28" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F28">
         <v>0</v>
